--- a/Homework1/stats.xlsx
+++ b/Homework1/stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.chernyakov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.chernyakov\Desktop\BioAlg\Homework1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95B249C-153C-47BF-9B7D-7263D717C51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A7AF0-7992-4DB8-8464-EEE5384099FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,9 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -92,6 +104,3132 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>t(N)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-422B-4448-8402-3116BA3A4B87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="372235936"/>
+        <c:axId val="372234496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="372235936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Мощность популяции</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372234496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="372234496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы алгоритма</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372235936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n(N)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F798-4044-B3C6-0BF701BEA26B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497446096"/>
+        <c:axId val="497444656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497446096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Мощность популяции</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497444656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497444656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> поколений</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497446096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>e(N)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>52.785581258968683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.733405835000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.952177051000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.914605492999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.07610491799997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.953396158999986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.914370762999937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.914370766999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E38-469D-B198-5D31849611FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="684317472"/>
+        <c:axId val="684315672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="684317472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Мощность</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> популяции</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684315672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="684315672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Точность решения</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684317472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822D3D80-E4D4-9AE8-B519-E3CB5740CE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098B945F-F2F9-D688-27AA-9AA1D34C7085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18534106-9A91-1786-B874-826E3976D594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +4042,7 @@
         <v>2.5270135847400002</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="D14:X14" si="0">SUM(F16:F25)/10</f>
+        <f t="shared" ref="F14:X14" si="0">SUM(F16:F25)/10</f>
         <v>2.5273340583500001</v>
       </c>
       <c r="I14">
@@ -936,12 +4074,10 @@
       <c r="B16">
         <v>2.5291437000000001</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>2.5291437075999998</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>2.5291437073999998</v>
       </c>
       <c r="I16">
@@ -963,13 +4099,11 @@
         <v>2.5291437083999999</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>2.5291437072999998</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>2.5205975264</v>
       </c>
       <c r="I17">
@@ -991,13 +4125,11 @@
         <v>2.5291437078999999</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>2.5291437081999999</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>2.5291437074999998</v>
       </c>
       <c r="I18">
@@ -1019,13 +4151,11 @@
         <v>2.5291437082999999</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>2.5291437076999999</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>2.5192334579</v>
       </c>
       <c r="I19">
@@ -1047,13 +4177,11 @@
         <v>2.5291437077999999</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>2.5291437076999999</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>2.5291437092</v>
       </c>
       <c r="I20">
@@ -1075,13 +4203,11 @@
         <v>2.5291437072999998</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>2.5291436989</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>2.5290725153000002</v>
       </c>
       <c r="I21">
@@ -1103,13 +4229,11 @@
         <v>2.5291437069999998</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>2.5291438014000001</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>2.5295749716999998</v>
       </c>
       <c r="I22">
@@ -1131,13 +4255,11 @@
         <v>2.5291437070999998</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>2.5363433722000002</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>2.5291437128999998</v>
       </c>
       <c r="I23">
@@ -1159,13 +4281,11 @@
         <v>2.5291437080999999</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>2.5006427286999999</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>2.5291437074999998</v>
       </c>
       <c r="I24">
@@ -1187,13 +4307,11 @@
         <v>2.5291437073999998</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>2.5291437076999999</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>2.5291435676999998</v>
       </c>
       <c r="I25">
@@ -1215,13 +4333,16 @@
         <v>2.5291437073999998</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>COUNT(C16:C25)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>30</v>
       </c>
@@ -1247,7 +4368,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
       <c r="C30">
         <f>SUM(B3:B12)/10</f>
         <v>5.3</v>
@@ -1281,7 +4405,10 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
       <c r="C31">
         <f>SUM(C3:C12)/10</f>
         <v>35.5</v>
@@ -1315,7 +4442,10 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
       <c r="C32">
         <f>ABS(1-(C14-C14/B14))*100</f>
         <v>52.785581258968683</v>
@@ -1353,6 +4483,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">

--- a/Homework1/stats.xlsx
+++ b/Homework1/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.chernyakov\Desktop\BioAlg\Homework1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A7AF0-7992-4DB8-8464-EEE5384099FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22AD669-9628-4551-853F-E7D42488CEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -46,6 +46,63 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Pm</t>
   </si>
 </sst>
 </file>
@@ -431,6 +488,14 @@
                 <a:r>
                   <a:rPr lang="ru-RU"/>
                   <a:t>Время работы алгоритма</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>мс</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1132,28 +1197,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>52.785581258968683</c:v>
+                  <c:v>99.980228695751265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.733405835000013</c:v>
+                  <c:v>99.928397211915026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.952177051000014</c:v>
+                  <c:v>99.98505367637442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.914605492999996</c:v>
+                  <c:v>99.99990688833509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.07610491799997</c:v>
+                  <c:v>99.936092378989173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.953396158999986</c:v>
+                  <c:v>99.984571798761124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.914370762999937</c:v>
+                  <c:v>99.999999698316898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.914370766999987</c:v>
+                  <c:v>99.999999696735316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,6 +1516,2671 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>t(Pc)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$84:$L$84</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$85:$L$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F10C-4E55-8D2B-383A03C4F5F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="503213776"/>
+        <c:axId val="503214136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="503213776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Вероятность</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> скрещивания</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503214136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503214136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> работы, мс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503213776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n(Pc)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$84:$L$84</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$86:$L$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB8D-4392-BCF2-49D30FA5BB68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="504063544"/>
+        <c:axId val="504064264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="504063544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Вероятность скрещивания</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504064264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504064264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> поколений</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504063544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>e(Pc)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$84:$L$84</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$87:$L$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.980228695751265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.99999970345695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.99999970345695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.999999699898453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.999999693967581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.999999697921467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.999592531575345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.996622739363673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15C2-4F18-BFFE-6183B0F20104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="749983224"/>
+        <c:axId val="749989704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="749983224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Вероятность скрещивания</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749989704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="749989704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Точность</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> решения</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749983224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>t(Pm)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$141:$L$141</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$142:$L$142</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D70-49EB-B23B-C162B7FA66E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="503206576"/>
+        <c:axId val="503210176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="503206576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Вероятность мутации</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503210176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503210176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время работы алгоритма,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503206576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n(Pm)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$143:$L$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-556A-4D51-A9B7-05D26FE1359E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="503675376"/>
+        <c:axId val="503669256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="503675376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Вероятность мутации</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503669256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503669256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> поколений</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503675376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>e(Pm)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$141:$L$141</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$144:$L$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.999999702270784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.99999970108459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.991999714512872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.994903701659084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.999999701084604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.999999699898439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.999999694758358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.999999695153747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B847-4B00-8A0D-11BC4A4F3751}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="504069304"/>
+        <c:axId val="504061744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="504069304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Вероятность мутации</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504061744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504061744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Точность</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> решения</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504069304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1571,6 +4301,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2604,6 +5574,3102 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3224,6 +9290,222 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57581F97-4B20-A929-55D5-7DF3276A0151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60B7A7F-32A9-159F-1BF0-E8676469364A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CEBCE4-3841-DCD1-29BE-C2181EC55D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D2D563-2E2B-B6BF-F518-146CCEE08C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69A1795-8695-9C11-F738-37EC5CB4AD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3E606B-0E20-5586-FD3A-3760B1BC56F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3495,15 +9777,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:X32"/>
+  <dimension ref="B2:Y144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85:L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4447,36 +10729,2004 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <f>ABS(1-(C14-C14/B14))*100</f>
-        <v>52.785581258968683</v>
+        <f>ABS(1-(ABS(C66-D66)/ABS(D66)))*100</f>
+        <v>99.980228695751265</v>
       </c>
       <c r="D32">
-        <f>ABS(1-(F14-B14/B14))*100</f>
-        <v>52.733405835000013</v>
+        <f>ABS(1-(ABS(B14-F14)/ABS(F14)))*100</f>
+        <v>99.928397211915026</v>
       </c>
       <c r="E32">
-        <f>ABS(1-(I14-B14/B14))*100</f>
-        <v>52.952177051000014</v>
+        <f>ABS(1-(ABS(B14-I14)/ABS(I14)))*100</f>
+        <v>99.98505367637442</v>
       </c>
       <c r="F32">
-        <f>ABS(1-(L14-B14/B14))*100</f>
-        <v>52.914605492999996</v>
+        <f>ABS(1-(ABS(B14-L14)/ABS(L14)))*100</f>
+        <v>99.99990688833509</v>
       </c>
       <c r="G32">
-        <f>ABS(1-(O14-B14/B14))*100</f>
-        <v>53.07610491799997</v>
+        <f>ABS(1-(ABS(B14-O14)/ABS(O14)))*100</f>
+        <v>99.936092378989173</v>
       </c>
       <c r="H32">
-        <f>ABS(1-(R14-B14/B14))*100</f>
-        <v>52.953396158999986</v>
+        <f>ABS(1-(ABS(B14-R14)/ABS(R14)))*100</f>
+        <v>99.984571798761124</v>
       </c>
       <c r="I32">
-        <f>ABS(1-(U14-B14/B14))*100</f>
-        <v>52.914370762999937</v>
+        <f>ABS(1-(ABS(B14-U14)/ABS(U14)))*100</f>
+        <v>99.999999698316898</v>
       </c>
       <c r="J32">
-        <f>ABS(1-(X14-B14/B14))*100</f>
-        <v>52.914370766999987</v>
+        <f>ABS(1-(ABS(B14-X14)/ABS(X14)))*100</f>
+        <v>99.999999696735316</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" t="s">
+        <v>7</v>
+      </c>
+      <c r="O53" t="s">
+        <v>8</v>
+      </c>
+      <c r="R53" t="s">
+        <v>9</v>
+      </c>
+      <c r="U53" t="s">
+        <v>10</v>
+      </c>
+      <c r="X53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>41</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>39</v>
+      </c>
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>39</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>39</v>
+      </c>
+      <c r="O54">
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <v>39</v>
+      </c>
+      <c r="R54">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <v>42</v>
+      </c>
+      <c r="U54">
+        <v>6</v>
+      </c>
+      <c r="V54">
+        <v>42</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Y54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>42</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>42</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="J55">
+        <v>41</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>38</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="P55">
+        <v>40</v>
+      </c>
+      <c r="R55">
+        <v>7</v>
+      </c>
+      <c r="S55">
+        <v>22</v>
+      </c>
+      <c r="U55">
+        <v>7</v>
+      </c>
+      <c r="V55">
+        <v>39</v>
+      </c>
+      <c r="X55">
+        <v>11</v>
+      </c>
+      <c r="Y55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>41</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>41</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>40</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
+      <c r="P56">
+        <v>41</v>
+      </c>
+      <c r="R56">
+        <v>7</v>
+      </c>
+      <c r="S56">
+        <v>38</v>
+      </c>
+      <c r="U56">
+        <v>7</v>
+      </c>
+      <c r="V56">
+        <v>22</v>
+      </c>
+      <c r="X56">
+        <v>4</v>
+      </c>
+      <c r="Y56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>39</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>43</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="J57">
+        <v>40</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>40</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>38</v>
+      </c>
+      <c r="R57">
+        <v>6</v>
+      </c>
+      <c r="S57">
+        <v>41</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>45</v>
+      </c>
+      <c r="X57">
+        <v>6</v>
+      </c>
+      <c r="Y57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>38</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>39</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>42</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>40</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58">
+        <v>40</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>47</v>
+      </c>
+      <c r="U58">
+        <v>12</v>
+      </c>
+      <c r="V58">
+        <v>44</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Y58">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>34</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>40</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>44</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>41</v>
+      </c>
+      <c r="O59">
+        <v>6</v>
+      </c>
+      <c r="P59">
+        <v>41</v>
+      </c>
+      <c r="R59">
+        <v>11</v>
+      </c>
+      <c r="S59">
+        <v>21</v>
+      </c>
+      <c r="U59">
+        <v>5</v>
+      </c>
+      <c r="V59">
+        <v>44</v>
+      </c>
+      <c r="X59">
+        <v>4</v>
+      </c>
+      <c r="Y59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>40</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>39</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>39</v>
+      </c>
+      <c r="O60">
+        <v>6</v>
+      </c>
+      <c r="P60">
+        <v>43</v>
+      </c>
+      <c r="R60">
+        <v>6</v>
+      </c>
+      <c r="S60">
+        <v>27</v>
+      </c>
+      <c r="U60">
+        <v>5</v>
+      </c>
+      <c r="V60">
+        <v>24</v>
+      </c>
+      <c r="X60">
+        <v>7</v>
+      </c>
+      <c r="Y60">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>39</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>41</v>
+      </c>
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>41</v>
+      </c>
+      <c r="O61">
+        <v>9</v>
+      </c>
+      <c r="P61">
+        <v>40</v>
+      </c>
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>43</v>
+      </c>
+      <c r="U61">
+        <v>5</v>
+      </c>
+      <c r="V61">
+        <v>41</v>
+      </c>
+      <c r="X61">
+        <v>8</v>
+      </c>
+      <c r="Y61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>45</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>41</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>41</v>
+      </c>
+      <c r="L62">
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <v>38</v>
+      </c>
+      <c r="O62">
+        <v>6</v>
+      </c>
+      <c r="P62">
+        <v>41</v>
+      </c>
+      <c r="R62">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <v>43</v>
+      </c>
+      <c r="U62">
+        <v>9</v>
+      </c>
+      <c r="V62">
+        <v>21</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>41</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>40</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>40</v>
+      </c>
+      <c r="L63">
+        <v>6</v>
+      </c>
+      <c r="M63">
+        <v>38</v>
+      </c>
+      <c r="O63">
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>40</v>
+      </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
+      <c r="S63">
+        <v>39</v>
+      </c>
+      <c r="U63">
+        <v>5</v>
+      </c>
+      <c r="V63">
+        <v>40</v>
+      </c>
+      <c r="X63">
+        <v>4</v>
+      </c>
+      <c r="Y63">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="D66">
+        <f>SUM(D68:D77)/10</f>
+        <v>2.5286437541500004</v>
+      </c>
+      <c r="F66">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="E66:Y66" si="1">SUM(G68:G77)/10</f>
+        <v>2.5291437074999998</v>
+      </c>
+      <c r="I66">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>2.5291437074999998</v>
+      </c>
+      <c r="L66">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>2.5291437075899994</v>
+      </c>
+      <c r="O66">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="1"/>
+        <v>2.5291437077399999</v>
+      </c>
+      <c r="R66">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="1"/>
+        <v>2.5291437076400003</v>
+      </c>
+      <c r="U66">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="1"/>
+        <v>2.5291333945799996</v>
+      </c>
+      <c r="X66">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="1"/>
+        <v>2.5290582871099998</v>
+      </c>
+    </row>
+    <row r="68" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="G68">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="J68">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="M68">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="P68">
+        <v>2.5291437065000002</v>
+      </c>
+      <c r="S68">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="V68">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="Y68">
+        <v>2.5276681059000001</v>
+      </c>
+    </row>
+    <row r="69" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="G69">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="J69">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="M69">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="P69">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="S69">
+        <v>2.5291437083999999</v>
+      </c>
+      <c r="V69">
+        <v>2.5291129456000001</v>
+      </c>
+      <c r="Y69">
+        <v>2.5291437080999999</v>
+      </c>
+    </row>
+    <row r="70" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>2.5291437082999999</v>
+      </c>
+      <c r="G70">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="J70">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="M70">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="P70">
+        <v>2.5291437080999999</v>
+      </c>
+      <c r="S70">
+        <v>2.5291437077999999</v>
+      </c>
+      <c r="V70">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="Y70">
+        <v>2.5291437070999998</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>2.5291437074999998</v>
+      </c>
+      <c r="G71">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="J71">
+        <v>2.5291437069999998</v>
+      </c>
+      <c r="M71">
+        <v>2.5291437067999998</v>
+      </c>
+      <c r="P71">
+        <v>2.5291437082999999</v>
+      </c>
+      <c r="S71">
+        <v>2.5291437069999998</v>
+      </c>
+      <c r="V71">
+        <v>2.5291437077999999</v>
+      </c>
+      <c r="Y71">
+        <v>2.5291437081999999</v>
+      </c>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>2.5291437081999999</v>
+      </c>
+      <c r="G72">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="J72">
+        <v>2.5291437069999998</v>
+      </c>
+      <c r="M72">
+        <v>2.5291437074999998</v>
+      </c>
+      <c r="P72">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="S72">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="V72">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="Y72">
+        <v>2.5291437072999998</v>
+      </c>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>2.5291437081999999</v>
+      </c>
+      <c r="G73">
+        <v>2.5291437072999998</v>
+      </c>
+      <c r="J73">
+        <v>2.5291437077999999</v>
+      </c>
+      <c r="M73">
+        <v>2.5291437072999998</v>
+      </c>
+      <c r="P73">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="S73">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="V73">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="Y73">
+        <v>2.5290760764</v>
+      </c>
+    </row>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>2.5291437067999998</v>
+      </c>
+      <c r="G74">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="J74">
+        <v>2.5291437077999999</v>
+      </c>
+      <c r="M74">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="P74">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="S74">
+        <v>2.5291437071999998</v>
+      </c>
+      <c r="V74">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="Y74">
+        <v>2.5298327342000002</v>
+      </c>
+    </row>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>2.5241441717000002</v>
+      </c>
+      <c r="G75">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="J75">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="M75">
+        <v>2.5291437077999999</v>
+      </c>
+      <c r="P75">
+        <v>2.5291437083999999</v>
+      </c>
+      <c r="S75">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="V75">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="Y75">
+        <v>2.5291437078999999</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="G76">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="J76">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="M76">
+        <v>2.5291437071999998</v>
+      </c>
+      <c r="P76">
+        <v>2.5291437081999999</v>
+      </c>
+      <c r="S76">
+        <v>2.5291437080999999</v>
+      </c>
+      <c r="V76">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="Y76">
+        <v>2.5291437079999999</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="G77">
+        <v>2.5291437070999998</v>
+      </c>
+      <c r="J77">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="M77">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="P77">
+        <v>2.5291437074999998</v>
+      </c>
+      <c r="S77">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="V77">
+        <v>2.5290713383000001</v>
+      </c>
+      <c r="Y77">
+        <v>2.5291437079999999</v>
+      </c>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <f>SUM(C54:C63)/10</f>
+        <v>6.2</v>
+      </c>
+      <c r="F85">
+        <f>SUM(F54:F63)/10</f>
+        <v>6.3</v>
+      </c>
+      <c r="G85">
+        <f>SUM(I54:I63)/10</f>
+        <v>6.5</v>
+      </c>
+      <c r="H85">
+        <f>SUM(L54:L63)/10</f>
+        <v>6.5</v>
+      </c>
+      <c r="I85">
+        <f>SUM(O54:O63)/10</f>
+        <v>6.6</v>
+      </c>
+      <c r="J85">
+        <f>SUM(R54:R63)/10</f>
+        <v>6.8</v>
+      </c>
+      <c r="K85">
+        <f>SUM(U54:U63)/10</f>
+        <v>6.5</v>
+      </c>
+      <c r="L85">
+        <f>SUM(X54:X63)/10</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <f>SUM(D54:D63)/10</f>
+        <v>39.9</v>
+      </c>
+      <c r="F86">
+        <f>SUM(G54:G63)/10</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G86">
+        <f>SUM(J54:J63)/10</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H86">
+        <f>SUM(M54:M63)/10</f>
+        <v>39.4</v>
+      </c>
+      <c r="I86">
+        <f>SUM(P54:P63)/10</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J86">
+        <f>SUM(S54:S63)/10</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K86">
+        <f>SUM(V54:V63)/10</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="L86">
+        <f>SUM(Y54:Y63)/10</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <f>ABS(1-(ABS(C66-D66)/ABS(D66)))*100</f>
+        <v>99.980228695751265</v>
+      </c>
+      <c r="F87">
+        <f>ABS(1-(ABS(C66-G66)/ABS(G66)))*100</f>
+        <v>99.99999970345695</v>
+      </c>
+      <c r="G87">
+        <f>ABS(1-(ABS(C66-J66)/ABS(J66)))*100</f>
+        <v>99.99999970345695</v>
+      </c>
+      <c r="H87">
+        <f>ABS(1-(ABS(C66-M66)/ABS(M66)))*100</f>
+        <v>99.999999699898453</v>
+      </c>
+      <c r="I87">
+        <f>ABS(1-(ABS(C66-P66)/ABS(P66)))*100</f>
+        <v>99.999999693967581</v>
+      </c>
+      <c r="J87">
+        <f>ABS(1-(ABS(C66-S66)/ABS(S66)))*100</f>
+        <v>99.999999697921467</v>
+      </c>
+      <c r="K87">
+        <f>ABS(1-(ABS(C66-V66)/ABS(V66)))*100</f>
+        <v>99.999592531575345</v>
+      </c>
+      <c r="L87">
+        <f>ABS(1-(ABS(C66-Y66)/ABS(Y66)))*100</f>
+        <v>99.996622739363673</v>
+      </c>
+    </row>
+    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+      <c r="L110" t="s">
+        <v>16</v>
+      </c>
+      <c r="O110" t="s">
+        <v>17</v>
+      </c>
+      <c r="R110" t="s">
+        <v>18</v>
+      </c>
+      <c r="U110" t="s">
+        <v>19</v>
+      </c>
+      <c r="X110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>43</v>
+      </c>
+      <c r="F111">
+        <v>7</v>
+      </c>
+      <c r="G111">
+        <v>38</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+      <c r="J111">
+        <v>40</v>
+      </c>
+      <c r="L111">
+        <v>6</v>
+      </c>
+      <c r="M111">
+        <v>43</v>
+      </c>
+      <c r="O111">
+        <v>6</v>
+      </c>
+      <c r="P111">
+        <v>23</v>
+      </c>
+      <c r="R111">
+        <v>6</v>
+      </c>
+      <c r="S111">
+        <v>44</v>
+      </c>
+      <c r="U111">
+        <v>7</v>
+      </c>
+      <c r="V111">
+        <v>42</v>
+      </c>
+      <c r="X111">
+        <v>4</v>
+      </c>
+      <c r="Y111">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>41</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+      <c r="G112">
+        <v>39</v>
+      </c>
+      <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112">
+        <v>42</v>
+      </c>
+      <c r="L112">
+        <v>7</v>
+      </c>
+      <c r="M112">
+        <v>39</v>
+      </c>
+      <c r="O112">
+        <v>7</v>
+      </c>
+      <c r="P112">
+        <v>47</v>
+      </c>
+      <c r="R112">
+        <v>7</v>
+      </c>
+      <c r="S112">
+        <v>45</v>
+      </c>
+      <c r="U112">
+        <v>7</v>
+      </c>
+      <c r="V112">
+        <v>43</v>
+      </c>
+      <c r="X112">
+        <v>7</v>
+      </c>
+      <c r="Y112">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <v>6</v>
+      </c>
+      <c r="G113">
+        <v>42</v>
+      </c>
+      <c r="I113">
+        <v>8</v>
+      </c>
+      <c r="J113">
+        <v>42</v>
+      </c>
+      <c r="L113">
+        <v>6</v>
+      </c>
+      <c r="M113">
+        <v>40</v>
+      </c>
+      <c r="O113">
+        <v>7</v>
+      </c>
+      <c r="P113">
+        <v>41</v>
+      </c>
+      <c r="R113">
+        <v>7</v>
+      </c>
+      <c r="S113">
+        <v>43</v>
+      </c>
+      <c r="U113">
+        <v>7</v>
+      </c>
+      <c r="V113">
+        <v>43</v>
+      </c>
+      <c r="X113">
+        <v>8</v>
+      </c>
+      <c r="Y113">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>41</v>
+      </c>
+      <c r="F114">
+        <v>7</v>
+      </c>
+      <c r="G114">
+        <v>42</v>
+      </c>
+      <c r="I114">
+        <v>7</v>
+      </c>
+      <c r="J114">
+        <v>41</v>
+      </c>
+      <c r="L114">
+        <v>7</v>
+      </c>
+      <c r="M114">
+        <v>46</v>
+      </c>
+      <c r="O114">
+        <v>6</v>
+      </c>
+      <c r="P114">
+        <v>62</v>
+      </c>
+      <c r="R114">
+        <v>8</v>
+      </c>
+      <c r="S114">
+        <v>45</v>
+      </c>
+      <c r="U114">
+        <v>7</v>
+      </c>
+      <c r="V114">
+        <v>46</v>
+      </c>
+      <c r="X114">
+        <v>8</v>
+      </c>
+      <c r="Y114">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>40</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115">
+        <v>40</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+      <c r="J115">
+        <v>41</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>41</v>
+      </c>
+      <c r="O115">
+        <v>8</v>
+      </c>
+      <c r="P115">
+        <v>60</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>43</v>
+      </c>
+      <c r="U115">
+        <v>5</v>
+      </c>
+      <c r="V115">
+        <v>41</v>
+      </c>
+      <c r="X115">
+        <v>8</v>
+      </c>
+      <c r="Y115">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>38</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116">
+        <v>40</v>
+      </c>
+      <c r="I116">
+        <v>7</v>
+      </c>
+      <c r="J116">
+        <v>40</v>
+      </c>
+      <c r="L116">
+        <v>10</v>
+      </c>
+      <c r="M116">
+        <v>43</v>
+      </c>
+      <c r="O116">
+        <v>13</v>
+      </c>
+      <c r="P116">
+        <v>42</v>
+      </c>
+      <c r="R116">
+        <v>10</v>
+      </c>
+      <c r="S116">
+        <v>53</v>
+      </c>
+      <c r="U116">
+        <v>10</v>
+      </c>
+      <c r="V116">
+        <v>43</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>48</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117">
+        <v>41</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>41</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>40</v>
+      </c>
+      <c r="O117">
+        <v>6</v>
+      </c>
+      <c r="P117">
+        <v>45</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>44</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>45</v>
+      </c>
+      <c r="X117">
+        <v>15</v>
+      </c>
+      <c r="Y117">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>40</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <v>41</v>
+      </c>
+      <c r="I118">
+        <v>10</v>
+      </c>
+      <c r="J118">
+        <v>38</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>49</v>
+      </c>
+      <c r="O118">
+        <v>9</v>
+      </c>
+      <c r="P118">
+        <v>39</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>45</v>
+      </c>
+      <c r="U118">
+        <v>6</v>
+      </c>
+      <c r="V118">
+        <v>43</v>
+      </c>
+      <c r="X118">
+        <v>8</v>
+      </c>
+      <c r="Y118">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>43</v>
+      </c>
+      <c r="F119">
+        <v>11</v>
+      </c>
+      <c r="G119">
+        <v>41</v>
+      </c>
+      <c r="I119">
+        <v>6</v>
+      </c>
+      <c r="J119">
+        <v>42</v>
+      </c>
+      <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>42</v>
+      </c>
+      <c r="O119">
+        <v>8</v>
+      </c>
+      <c r="P119">
+        <v>43</v>
+      </c>
+      <c r="R119">
+        <v>6</v>
+      </c>
+      <c r="S119">
+        <v>42</v>
+      </c>
+      <c r="U119">
+        <v>10</v>
+      </c>
+      <c r="V119">
+        <v>37</v>
+      </c>
+      <c r="X119">
+        <v>7</v>
+      </c>
+      <c r="Y119">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>40</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+      <c r="G120">
+        <v>40</v>
+      </c>
+      <c r="I120">
+        <v>8</v>
+      </c>
+      <c r="J120">
+        <v>41</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120">
+        <v>38</v>
+      </c>
+      <c r="O120">
+        <v>8</v>
+      </c>
+      <c r="P120">
+        <v>46</v>
+      </c>
+      <c r="R120">
+        <v>6</v>
+      </c>
+      <c r="S120">
+        <v>43</v>
+      </c>
+      <c r="U120">
+        <v>7</v>
+      </c>
+      <c r="V120">
+        <v>44</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="D123">
+        <f>SUM(D125:D134)/10</f>
+        <v>2.5291437075299998</v>
+      </c>
+      <c r="F123">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="G123">
+        <f t="shared" ref="G123:Y123" si="2">SUM(G125:G134)/10</f>
+        <v>2.5291437075600003</v>
+      </c>
+      <c r="I123">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="J123">
+        <f t="shared" ref="J123:Y123" si="3">SUM(J125:J134)/10</f>
+        <v>2.5289413774700003</v>
+      </c>
+      <c r="L123">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="M123">
+        <f t="shared" ref="M123:Y123" si="4">SUM(M125:M134)/10</f>
+        <v>2.5290148138599999</v>
+      </c>
+      <c r="O123">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="P123">
+        <f t="shared" ref="P123:Y123" si="5">SUM(P125:P134)/10</f>
+        <v>2.5291437075599998</v>
+      </c>
+      <c r="R123">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="S123">
+        <f t="shared" ref="S123:Y123" si="6">SUM(S125:S134)/10</f>
+        <v>2.5291437075899998</v>
+      </c>
+      <c r="U123">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="V123">
+        <f t="shared" ref="V123:Y123" si="7">SUM(V125:V134)/10</f>
+        <v>2.5291437077199999</v>
+      </c>
+      <c r="X123">
+        <v>2.5291437000000001</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" ref="Y123" si="8">SUM(Y125:Y134)/10</f>
+        <v>2.5291437077099999</v>
+      </c>
+    </row>
+    <row r="125" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="G125">
+        <v>2.5291437081999999</v>
+      </c>
+      <c r="J125">
+        <v>2.5291437070999998</v>
+      </c>
+      <c r="M125">
+        <v>2.5291437072999998</v>
+      </c>
+      <c r="P125">
+        <v>2.5291437077999999</v>
+      </c>
+      <c r="S125">
+        <v>2.5291437082999999</v>
+      </c>
+      <c r="V125">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="Y125">
+        <v>2.5291437072999998</v>
+      </c>
+    </row>
+    <row r="126" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>2.5291437070999998</v>
+      </c>
+      <c r="G126">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="J126">
+        <v>2.5291437074999998</v>
+      </c>
+      <c r="M126">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="P126">
+        <v>2.5291437082999999</v>
+      </c>
+      <c r="S126">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="V126">
+        <v>2.5291437072999998</v>
+      </c>
+      <c r="Y126">
+        <v>2.5291437078999999</v>
+      </c>
+    </row>
+    <row r="127" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>2.5291437081999999</v>
+      </c>
+      <c r="G127">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="J127">
+        <v>2.5271204053999998</v>
+      </c>
+      <c r="M127">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="P127">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="S127">
+        <v>2.5291437080999999</v>
+      </c>
+      <c r="V127">
+        <v>2.5291437070999998</v>
+      </c>
+      <c r="Y127">
+        <v>2.5291437076999999</v>
+      </c>
+    </row>
+    <row r="128" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="G128">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="J128">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="M128">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="P128">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="S128">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="V128">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="Y128">
+        <v>2.5291437075999998</v>
+      </c>
+    </row>
+    <row r="129" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>2.5291437080999999</v>
+      </c>
+      <c r="G129">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="J129">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="M129">
+        <v>2.5291437075999998</v>
+      </c>
+      <c r="P129">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="S129">
+        <v>2.5291437083999999</v>
+      </c>
+      <c r="V129">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="Y129">
+        <v>2.5291437080999999</v>
+      </c>
+    </row>
+    <row r="130" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>2.5291437077999999</v>
+      </c>
+      <c r="G130">
+        <v>2.5291437084999999</v>
+      </c>
+      <c r="J130">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="M130">
+        <v>2.5291437080999999</v>
+      </c>
+      <c r="P130">
+        <v>2.5291437069999998</v>
+      </c>
+      <c r="S130">
+        <v>2.5291437074999998</v>
+      </c>
+      <c r="V130">
+        <v>2.5291437081999999</v>
+      </c>
+      <c r="Y130">
+        <v>2.5291437069999998</v>
+      </c>
+    </row>
+    <row r="131" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>2.5291437069999998</v>
+      </c>
+      <c r="G131">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="J131">
+        <v>2.5291437072999998</v>
+      </c>
+      <c r="M131">
+        <v>2.5291437068999998</v>
+      </c>
+      <c r="P131">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="S131">
+        <v>2.5291437067000002</v>
+      </c>
+      <c r="V131">
+        <v>2.5291437077999999</v>
+      </c>
+      <c r="Y131">
+        <v>2.5291437078999999</v>
+      </c>
+    </row>
+    <row r="132" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>2.5291437076999999</v>
+      </c>
+      <c r="G132">
+        <v>2.5291437068999998</v>
+      </c>
+      <c r="J132">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="M132">
+        <v>2.5291437080999999</v>
+      </c>
+      <c r="P132">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="S132">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="V132">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="Y132">
+        <v>2.5291437082999999</v>
+      </c>
+    </row>
+    <row r="133" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>2.5291437073999998</v>
+      </c>
+      <c r="G133">
+        <v>2.5291437067999998</v>
+      </c>
+      <c r="J133">
+        <v>2.5291437078999999</v>
+      </c>
+      <c r="M133">
+        <v>2.5291437069999998</v>
+      </c>
+      <c r="P133">
+        <v>2.5291437070999998</v>
+      </c>
+      <c r="S133">
+        <v>2.5291437070999998</v>
+      </c>
+      <c r="V133">
+        <v>2.5291437068999998</v>
+      </c>
+      <c r="Y133">
+        <v>2.5291437073999998</v>
+      </c>
+    </row>
+    <row r="134" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>2.5291437067000002</v>
+      </c>
+      <c r="G134">
+        <v>2.5291437070999998</v>
+      </c>
+      <c r="J134">
+        <v>2.5291437083999999</v>
+      </c>
+      <c r="M134">
+        <v>2.5278547699999998</v>
+      </c>
+      <c r="P134">
+        <v>2.5291437071999998</v>
+      </c>
+      <c r="S134">
+        <v>2.5291437072999998</v>
+      </c>
+      <c r="V134">
+        <v>2.5291437079999999</v>
+      </c>
+      <c r="Y134">
+        <v>2.5291437078999999</v>
+      </c>
+    </row>
+    <row r="141" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" t="s">
+        <v>21</v>
+      </c>
+      <c r="K141" t="s">
+        <v>19</v>
+      </c>
+      <c r="L141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <f>SUM(C111:C120)/10</f>
+        <v>6.6</v>
+      </c>
+      <c r="F142">
+        <f>SUM(F111:F120)/10</f>
+        <v>7</v>
+      </c>
+      <c r="G142">
+        <f>SUM(I111:I120)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="H142">
+        <f>SUM(L111:L120)/10</f>
+        <v>6</v>
+      </c>
+      <c r="I142">
+        <f>SUM(O111:O120)/10</f>
+        <v>7.8</v>
+      </c>
+      <c r="J142">
+        <f>SUM(R111:R120)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="K142">
+        <f>SUM(U111:U120)/10</f>
+        <v>6.9</v>
+      </c>
+      <c r="L142">
+        <f>SUM(X111:X120)/10</f>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="143" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <f>SUM(D111:D120)/10</f>
+        <v>41.5</v>
+      </c>
+      <c r="F143">
+        <f>SUM(G111:G120)/10</f>
+        <v>40.4</v>
+      </c>
+      <c r="G143">
+        <f>SUM(J111:J120)/10</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H143">
+        <f>SUM(M111:M120)/10</f>
+        <v>42.1</v>
+      </c>
+      <c r="I143">
+        <f>SUM(P111:P120)/10</f>
+        <v>44.8</v>
+      </c>
+      <c r="J143">
+        <f>SUM(S111:S120)/10</f>
+        <v>44.7</v>
+      </c>
+      <c r="K143">
+        <f>SUM(V111:V120)/10</f>
+        <v>42.7</v>
+      </c>
+      <c r="L143">
+        <f>SUM(Y111:Y120)/10</f>
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="144" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <f>ABS(1-(ABS(C123-D123)/ABS(D123)))*100</f>
+        <v>99.999999702270784</v>
+      </c>
+      <c r="F144">
+        <f>ABS(1-(ABS(C123-G123)/ABS(G123)))*100</f>
+        <v>99.99999970108459</v>
+      </c>
+      <c r="G144">
+        <f>ABS(1-(ABS(C123-J123)/ABS(J123)))*100</f>
+        <v>99.991999714512872</v>
+      </c>
+      <c r="H144">
+        <f>ABS(1-(ABS(C123-M123)/ABS(M123)))*100</f>
+        <v>99.994903701659084</v>
+      </c>
+      <c r="I144">
+        <f>ABS(1-(ABS(C123-P123)/ABS(P123)))*100</f>
+        <v>99.999999701084604</v>
+      </c>
+      <c r="J144">
+        <f>ABS(1-(ABS(C123-S123)/ABS(S123)))*100</f>
+        <v>99.999999699898439</v>
+      </c>
+      <c r="K144">
+        <f>ABS(1-(ABS(C123-V123)/ABS(V123)))*100</f>
+        <v>99.999999694758358</v>
+      </c>
+      <c r="L144">
+        <f>ABS(1-(ABS(C123-Y123)/ABS(Y123)))*100</f>
+        <v>99.999999695153747</v>
       </c>
     </row>
   </sheetData>
@@ -4487,6 +12737,94 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DBCEF5A1-4CC4-4028-A22F-C0F6E71BFAF9}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!E141:E141</xm:f>
+              <xm:sqref>E142</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F141:F141</xm:f>
+              <xm:sqref>F142</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!G141:G141</xm:f>
+              <xm:sqref>G142</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!H141:H141</xm:f>
+              <xm:sqref>H142</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!I141:I141</xm:f>
+              <xm:sqref>I142</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!J141:J141</xm:f>
+              <xm:sqref>J142</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!K141:K141</xm:f>
+              <xm:sqref>K142</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!L141:L141</xm:f>
+              <xm:sqref>L142</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{5EEC91F2-742A-4267-AEFE-981588946203}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!E84:E84</xm:f>
+              <xm:sqref>E85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F84:F84</xm:f>
+              <xm:sqref>F85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!G84:G84</xm:f>
+              <xm:sqref>G85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!H84:H84</xm:f>
+              <xm:sqref>H85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!I84:I84</xm:f>
+              <xm:sqref>I85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!J84:J84</xm:f>
+              <xm:sqref>J85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!K84:K84</xm:f>
+              <xm:sqref>K85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!L84:L84</xm:f>
+              <xm:sqref>L85</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FDCA561E-702C-4DD2-8BD0-77614A8A4D74}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
